--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1258748.655115973</v>
+        <v>-1260646.887220097</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>42.67172934739091</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>166.7852523386792</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>67.24036028042121</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.22057022116324</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>134.5296849626598</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>61.26526235734981</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.37808733934417</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>135.1157241044943</v>
+        <v>142.9140233358189</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>131.4339200534715</v>
+        <v>78.08759758434282</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>54.54548707014979</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>38.8509979633869</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465735</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.94988401774967</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583902</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>147.1163355383893</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>49.14757544257679</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>19.44625325864656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.51463362594137</v>
+        <v>96.71233187893849</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>29.91035731440888</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>88.56956259877722</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>103.577671927493</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>82.76481347543437</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>61.75790661595705</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>5.127138000634323</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337373</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789466</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287489</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1757.366513095501</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C2" t="n">
-        <v>1388.403996155089</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>710.0191303957272</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>703.0736296465237</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.505845071313</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y2" t="n">
-        <v>1757.366513095501</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>121.8625376591738</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>121.8625376591738</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>636.9970950941483</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>636.9970950941483</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>636.9970950941483</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>636.9970950941483</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>501.108524424795</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.883734065348</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.883734065348</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>917.6180354585974</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>917.6180354585974</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>506.6321306689899</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>88.66832256717674</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>88.66832256717674</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>554.3544657309461</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>554.3544657309461</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>591.6484548079553</v>
+        <v>554.3544657309461</v>
       </c>
       <c r="U7" t="n">
-        <v>591.6484548079553</v>
+        <v>554.3544657309461</v>
       </c>
       <c r="V7" t="n">
-        <v>591.6484548079553</v>
+        <v>554.3544657309461</v>
       </c>
       <c r="W7" t="n">
-        <v>591.6484548079553</v>
+        <v>554.3544657309461</v>
       </c>
       <c r="X7" t="n">
-        <v>591.6484548079553</v>
+        <v>554.3544657309461</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>554.3544657309461</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.778685247039</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.378525311161</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.378525311161</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
@@ -5048,22 +5048,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158044</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2205.048458376741</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610158</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331089</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207732</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1406.037599832903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1206.117589748455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>982.3321745379599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>982.3321745379599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>727.647686332073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>1060.896741391256</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5270,58 +5270,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2413.343925613455</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5422,16 +5422,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="U16" t="n">
-        <v>1368.198487060489</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="V16" t="n">
-        <v>1113.513998854602</v>
+        <v>1449.27225495934</v>
       </c>
       <c r="W16" t="n">
-        <v>1113.513998854602</v>
+        <v>1159.855084922379</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0596387883054</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1231.809761861393</v>
+        <v>1401.227046437763</v>
       </c>
       <c r="U19" t="n">
-        <v>1231.809761861393</v>
+        <v>1112.098407651321</v>
       </c>
       <c r="V19" t="n">
-        <v>977.1252736555057</v>
+        <v>1112.098407651321</v>
       </c>
       <c r="W19" t="n">
-        <v>687.7081036185451</v>
+        <v>822.6812376143602</v>
       </c>
       <c r="X19" t="n">
-        <v>687.7081036185451</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="Y19" t="n">
-        <v>687.7081036185451</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845923</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.8631874464246</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185177</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1244.918373211642</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.918373211642</v>
+        <v>1185.666650702179</v>
       </c>
       <c r="W22" t="n">
-        <v>955.5012031746817</v>
+        <v>896.249480665218</v>
       </c>
       <c r="X22" t="n">
-        <v>727.5116522766643</v>
+        <v>896.249480665218</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.5116522766643</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>231.9043177021526</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K24" t="n">
-        <v>380.9740019042124</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L24" t="n">
-        <v>627.7391298106764</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1396.107276203138</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.969903867171</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6124,19 +6124,19 @@
         <v>517.9294177607301</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>180.8179131526438</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6218,7 +6218,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,22 +6227,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6312,16 +6312,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.1316371486756</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207687</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1436.5345467034</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1436.5345467034</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1147.405907916959</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655738</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X28" t="n">
-        <v>949.9242162922058</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y28" t="n">
-        <v>729.1316371486756</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6473,19 +6473,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,22 +6537,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>316.9584588710877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1894.594339433114</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7403,19 +7403,19 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>2013.406634128704</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2292.946699347401</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2497.96918012961</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1028.859951698067</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.3400780863228</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>52.49733361305249</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>308.1251096272022</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>94.13752431970619</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>104.6241510367944</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10194,16 +10194,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>29.47535963978228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.872441903933</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>38.86002301949951</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>188.8856946302408</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>82.51931018359363</v>
       </c>
       <c r="V4" t="n">
-        <v>117.6079583611682</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.01446838604313</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>71.46831781370548</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>148.7732345410265</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>266.7910991399308</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>155.0329274324479</v>
+        <v>124.8352291794508</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>256.3269950841685</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>163.5680807250508</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>63.66914917113483</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>66.14901489210176</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>136.1629033676462</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>220.5825173884028</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-2.151612349409311e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1308063.461243506</v>
+        <v>1308063.461243507</v>
       </c>
     </row>
     <row r="3">
@@ -26317,7 +26317,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
         <v>136860.1709081981</v>
@@ -26326,7 +26326,7 @@
         <v>136860.1709081981</v>
       </c>
       <c r="G2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
         <v>136860.1709081981</v>
@@ -26335,25 +26335,25 @@
         <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="K2" t="n">
+        <v>143682.3097262493</v>
+      </c>
+      <c r="L2" t="n">
         <v>143682.3097262497</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262495</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262495</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371256</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161410.6210996772</v>
+        <v>161410.6210996773</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26427,7 +26427,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687072</v>
@@ -26442,19 +26442,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,19 +26488,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-691849.8303067865</v>
+        <v>-691868.324044721</v>
       </c>
       <c r="C6" t="n">
-        <v>-104809.6361236841</v>
+        <v>-104809.6361236842</v>
       </c>
       <c r="D6" t="n">
         <v>-104809.6361236842</v>
       </c>
       <c r="E6" t="n">
-        <v>-502461.7991042853</v>
+        <v>-502559.2582302575</v>
       </c>
       <c r="F6" t="n">
-        <v>22698.23737261076</v>
+        <v>22600.77824663853</v>
       </c>
       <c r="G6" t="n">
-        <v>22698.23737261081</v>
+        <v>22600.77824663858</v>
       </c>
       <c r="H6" t="n">
-        <v>22698.23737261079</v>
+        <v>22600.77824663863</v>
       </c>
       <c r="I6" t="n">
-        <v>22698.23737261081</v>
+        <v>22600.77824663857</v>
       </c>
       <c r="J6" t="n">
-        <v>-153724.9818199822</v>
+        <v>-153822.4409459542</v>
       </c>
       <c r="K6" t="n">
-        <v>-53131.70302567941</v>
+        <v>-53131.70302567983</v>
       </c>
       <c r="L6" t="n">
         <v>1373.809078033068</v>
       </c>
       <c r="M6" t="n">
-        <v>-133427.2061558044</v>
+        <v>-133427.206155804</v>
       </c>
       <c r="N6" t="n">
-        <v>1373.809078032966</v>
+        <v>1373.809078032864</v>
       </c>
       <c r="O6" t="n">
-        <v>1373.809078033009</v>
+        <v>1373.809078033024</v>
       </c>
       <c r="P6" t="n">
-        <v>-53131.70302567974</v>
+        <v>-53131.70302567953</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,43 +26738,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>312.011312273292</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>246.9989176821157</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>100.0694419786297</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>56.44462175899459</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>203.7625640583841</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>321.4685793061308</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>117.5532289055171</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>89.91938135358996</v>
+        <v>82.12108212226536</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>238.2971806249976</v>
+        <v>291.6435030941262</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>125.2864931117875</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>107.5829646831823</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28324,13 +28324,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.353110871397</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>259.5907485445772</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>590.4888118683106</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.0477032746128</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>437.8187244348073</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36914,16 +36914,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>180.0507982277215</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>420.3639292382666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.8730558045736</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>499.310071680707</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
@@ -38114,10 +38114,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
